--- a/robot/config/apicase.xlsx
+++ b/robot/config/apicase.xlsx
@@ -2517,9 +2517,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -2538,19 +2538,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2562,7 +2568,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2575,25 +2589,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2609,6 +2617,14 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2636,9 +2652,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2646,22 +2661,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2676,7 +2676,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2697,7 +2697,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2709,13 +2853,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2727,157 +2871,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2917,6 +2917,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2969,17 +2984,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2992,27 +3003,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -3021,131 +3021,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9655,7 +9655,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -9706,13 +9706,13 @@
         <v>473</v>
       </c>
       <c r="E2" s="3">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F2" s="3">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G2" s="3">
-        <v>13333544527</v>
+        <v>13333544528</v>
       </c>
     </row>
   </sheetData>
